--- a/UI_SoP/ERA_metals.xlsx
+++ b/UI_SoP/ERA_metals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\04_Projekte\Circular_economy\01_Projects\2018_LACE\02_Dissertation_Desing\14 - Austausch mit Gregor\ERA method for paper - online\UI_SoP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 - Daten Harald\01 - Arbeitsunterlagen\12 - Publikationen\03 - ERA\SM-ERA_method_online - revised\UI_SoP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13428" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="288">
   <si>
     <t>ecoinvent3_5</t>
   </si>
@@ -58,9 +58,6 @@
     <t>water consumption</t>
   </si>
   <si>
-    <t>aerosol loading</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>selected LCI results:resource:land occupation</t>
   </si>
   <si>
-    <t>particulate matter formation</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>m³</t>
   </si>
   <si>
-    <t>kg PM10-Eq</t>
-  </si>
-  <si>
     <t>MJ-eq</t>
   </si>
   <si>
@@ -289,12 +280,6 @@
     <t>m³/a</t>
   </si>
   <si>
-    <t>aerosol formation</t>
-  </si>
-  <si>
-    <t>kg PM10-eq</t>
-  </si>
-  <si>
     <t>total energy use</t>
   </si>
   <si>
@@ -796,9 +781,6 @@
     <t>steel, unalloyed//[GLO] steel production &amp; EoL, converter, unalloyed</t>
   </si>
   <si>
-    <t>production volume</t>
-  </si>
-  <si>
     <t>zinc//[GLO] market for zinc</t>
   </si>
   <si>
@@ -893,6 +875,24 @@
   </si>
   <si>
     <t>Ashby, 2011</t>
+  </si>
+  <si>
+    <t>oversize factor</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>production output</t>
+  </si>
+  <si>
+    <t>overall production</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>kg/a</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,12 +979,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1076,7 +1070,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1098,35 +1092,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1139,7 +1112,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1424,317 +1415,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="30">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="30">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="30">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F7" s="14">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="30">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F8" s="14">
         <v>4</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="30">
         <v>5</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F9" s="14">
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>6</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F10" s="14">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
       <c r="J10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="30">
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F11" s="14">
         <v>7</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="30">
         <v>8</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F12" s="14">
         <v>8</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="30">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F13" s="14">
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="30">
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F14" s="14">
         <v>10</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F15" s="14">
         <v>11</v>
@@ -1746,429 +1737,416 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="30">
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="F16" s="14">
-        <v>12</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="30">
         <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="C19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="C20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="C21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="C22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="C23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="C24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="C25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="C26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="C27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="C28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="C29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="C30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="14"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="14"/>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="14"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="14"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="14"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="14"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="14"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="14"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="14"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="14"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="14"/>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="14"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="14"/>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="14"/>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="14"/>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="14"/>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="14"/>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="14"/>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="14"/>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="14"/>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="14"/>
       <c r="C54" s="14"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="14"/>
       <c r="C55" s="14"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="14"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="14"/>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="14"/>
       <c r="C58" s="14"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="14"/>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="14"/>
       <c r="C60" s="14"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="14"/>
       <c r="C61" s="14"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="14"/>
       <c r="C62" s="14"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="14"/>
       <c r="C63" s="14"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="14"/>
       <c r="C64" s="14"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="14"/>
       <c r="C65" s="14"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="14"/>
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="14"/>
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="14"/>
       <c r="C68" s="14"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="14"/>
       <c r="C69" s="14"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="14"/>
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="14"/>
       <c r="C71" s="14"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="14"/>
       <c r="C72" s="14"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="14"/>
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="14"/>
       <c r="C74" s="14"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="14"/>
       <c r="C75" s="14"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
       <c r="C76" s="14"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
       <c r="C77" s="14"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="C79" s="14"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="C80" s="14"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
       <c r="C81" s="14"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
       <c r="C82" s="14"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
       <c r="C83" s="14"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
       <c r="C84" s="14"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="14"/>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="14"/>
       <c r="C86" s="14"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="14"/>
       <c r="C87" s="14"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="14"/>
       <c r="C88" s="14"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="14"/>
       <c r="C89" s="14"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="14"/>
       <c r="C90" s="14"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="14"/>
       <c r="C91" s="14"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="14"/>
       <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="14"/>
       <c r="C93" s="14"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="14"/>
       <c r="C94" s="14"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="14"/>
       <c r="C95" s="14"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="14"/>
       <c r="C96" s="14"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="C97" s="14"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="C98" s="14"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="C99" s="14"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="14"/>
       <c r="C100" s="14"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="14"/>
       <c r="C101" s="14"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="C102" s="14"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="C103" s="14"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="14"/>
       <c r="C104" s="14"/>
     </row>
@@ -2181,253 +2159,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="103.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="103.54296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2436,9 +2414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -2447,9 +2425,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2458,9 +2436,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -2469,9 +2447,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -2480,9 +2458,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2491,9 +2469,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -2502,225 +2480,225 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" s="14"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" s="14"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -2729,144 +2707,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
       <c r="C60" s="14"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
       <c r="C61" s="14"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62" s="14"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
       <c r="C63" s="14"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
       <c r="C64" s="14"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
       <c r="C65" s="14"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
       <c r="C68" s="14"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
       <c r="C69" s="14"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
       <c r="C71" s="14"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
       <c r="C72" s="14"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -2875,18 +2853,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
       <c r="C75" s="14"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -2895,18 +2873,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
       <c r="C77" s="14"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -2915,18 +2893,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
       <c r="C79" s="14"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -2935,18 +2913,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
       <c r="C81" s="14"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -2955,18 +2933,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
       <c r="C83" s="14"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -2975,18 +2953,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -2995,522 +2973,522 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
       <c r="C87" s="14"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
       <c r="C88" s="14"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
       <c r="C89" s="14"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
       <c r="C90" s="14"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
       <c r="C91" s="14"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
       <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
       <c r="C93" s="14"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B94">
         <v>92</v>
       </c>
       <c r="C94" s="14"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
       <c r="C95" s="14"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B96">
         <v>94</v>
       </c>
       <c r="C96" s="14"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
       <c r="C97" s="14"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B98">
         <v>96</v>
       </c>
       <c r="C98" s="14"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B99">
         <v>97</v>
       </c>
       <c r="C99" s="14"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B100">
         <v>98</v>
       </c>
       <c r="C100" s="14"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B101">
         <v>99</v>
       </c>
       <c r="C101" s="14"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
       <c r="C102" s="14"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B103">
         <v>101</v>
       </c>
       <c r="C103" s="14"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B104">
         <v>102</v>
       </c>
       <c r="C104" s="14"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B105">
         <v>103</v>
       </c>
       <c r="C105" s="14"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B106">
         <v>104</v>
       </c>
       <c r="C106" s="14"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B107">
         <v>105</v>
       </c>
       <c r="C107" s="14"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B108">
         <v>106</v>
       </c>
       <c r="C108" s="14"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B109">
         <v>107</v>
       </c>
       <c r="C109" s="14"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B110">
         <v>108</v>
       </c>
       <c r="C110" s="14"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B111">
         <v>109</v>
       </c>
       <c r="C111" s="14"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
       <c r="C112" s="14"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B113">
         <v>111</v>
       </c>
       <c r="C113" s="14"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
       <c r="C114" s="14"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
       <c r="C115" s="14"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
       <c r="C116" s="14"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B117">
         <v>115</v>
       </c>
       <c r="C117" s="14"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B118">
         <v>116</v>
       </c>
       <c r="C118" s="14"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B119">
         <v>117</v>
       </c>
       <c r="C119" s="14"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B120">
         <v>118</v>
       </c>
       <c r="C120" s="14"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B121">
         <v>119</v>
       </c>
       <c r="C121" s="14"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B122">
         <v>120</v>
       </c>
       <c r="C122" s="14"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B123">
         <v>121</v>
       </c>
       <c r="C123" s="14"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B124">
         <v>122</v>
       </c>
       <c r="C124" s="14"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B125">
         <v>123</v>
       </c>
       <c r="C125" s="14"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B126">
         <v>124</v>
       </c>
       <c r="C126" s="14"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
       <c r="C127" s="14"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B128">
         <v>126</v>
       </c>
       <c r="C128" s="14"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B129">
         <v>127</v>
       </c>
       <c r="C129" s="14"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
       <c r="C130" s="14"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B131">
         <v>129</v>
       </c>
       <c r="C131" s="14"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B132">
         <v>130</v>
       </c>
       <c r="C132" s="14"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B133">
         <v>131</v>
       </c>
       <c r="C133" s="14"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B134">
         <v>132</v>
       </c>
       <c r="C134" s="14"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B135">
         <v>133</v>
       </c>
       <c r="C135" s="14"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B136">
         <v>134</v>
       </c>
       <c r="C136" s="14"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B137">
         <v>135</v>
       </c>
       <c r="C137" s="14"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B138">
         <v>136</v>
       </c>
       <c r="C138" s="14"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B139">
         <v>137</v>
       </c>
       <c r="C139" s="14"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B140">
         <v>138</v>
       </c>
       <c r="C140" s="14"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B141">
         <v>139</v>
       </c>
       <c r="C141" s="14"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B142">
         <v>140</v>
       </c>
       <c r="C142" s="14"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B143">
         <v>141</v>
       </c>
       <c r="C143" s="14"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B144">
         <v>142</v>
@@ -3519,126 +3497,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B145">
         <v>143</v>
       </c>
       <c r="C145" s="14"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B146">
         <v>144</v>
       </c>
       <c r="C146" s="14"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B147">
         <v>145</v>
       </c>
       <c r="C147" s="14"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B148">
         <v>146</v>
       </c>
       <c r="C148" s="14"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B149">
         <v>147</v>
       </c>
       <c r="C149" s="14"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B150">
         <v>148</v>
       </c>
       <c r="C150" s="14"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B151">
         <v>149</v>
       </c>
       <c r="C151" s="14"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B152">
         <v>150</v>
       </c>
       <c r="C152" s="14"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B153">
         <v>151</v>
       </c>
       <c r="C153" s="14"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B154">
         <v>152</v>
       </c>
       <c r="C154" s="14"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B155">
         <v>153</v>
       </c>
       <c r="C155" s="14"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B156">
         <v>154</v>
       </c>
       <c r="C156" s="14"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B157">
         <v>155</v>
       </c>
       <c r="C157" s="14"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B158">
         <v>156</v>
@@ -3647,72 +3625,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B159">
         <v>157</v>
       </c>
       <c r="C159" s="14"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B160">
         <v>158</v>
       </c>
       <c r="C160" s="14"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B161">
         <v>159</v>
       </c>
       <c r="C161" s="14"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B162">
         <v>160</v>
       </c>
       <c r="C162" s="14"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B163">
         <v>161</v>
       </c>
       <c r="C163" s="14"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B164">
         <v>162</v>
       </c>
       <c r="C164" s="14"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B165">
         <v>163</v>
       </c>
       <c r="C165" s="14"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B166" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3722,210 +3700,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB104"/>
+  <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:BB54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="41" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="34" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="42" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="37" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="31" t="s">
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31" t="s">
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="39" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-    </row>
-    <row r="2" spans="1:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+    </row>
+    <row r="2" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="K2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="O2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
       <c r="R2">
         <v>3</v>
       </c>
-      <c r="S2" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="S2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
       <c r="V2">
         <v>4</v>
       </c>
-      <c r="W2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
+      <c r="W2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
       <c r="Z2">
         <v>5</v>
       </c>
-      <c r="AA2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
+      <c r="AA2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
       <c r="AD2">
         <v>6</v>
       </c>
-      <c r="AE2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
+      <c r="AE2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
       <c r="AH2">
         <v>7</v>
       </c>
-      <c r="AI2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
+      <c r="AI2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
       <c r="AL2">
         <v>8</v>
       </c>
-      <c r="AM2" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
+      <c r="AM2" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
       <c r="AP2">
         <v>9</v>
       </c>
-      <c r="AQ2" s="36" t="s">
+      <c r="AQ2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
       <c r="AT2">
         <v>10</v>
       </c>
       <c r="AU2" s="36" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AV2" s="36"/>
       <c r="AW2" s="36"/>
       <c r="AX2">
         <v>11</v>
       </c>
-      <c r="AY2" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3933,303 +3897,279 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="S3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X3">
         <v>0.04</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3">
         <v>0.04</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3">
         <v>0.04</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AM3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN3">
         <v>0.04</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR3">
         <v>0.04</v>
       </c>
       <c r="AS3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AU3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P4" t="s">
+      <c r="X4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="AA4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AF4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AG4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="7" t="s">
+      <c r="AI4" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="AJ4" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="AK4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AL4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM4" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO4" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AP4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AR4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AS4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AT4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AV4" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AW4" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <f>dimension!A5</f>
         <v>1</v>
@@ -4239,7 +4179,7 @@
         <v>aluminium, primary, ingot//[GLO] aluminium production &amp; EoL, primary, ingot</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4371,31 +4311,19 @@
         <v>4</v>
       </c>
       <c r="AU5" s="14">
-        <v>1.1484966835199999E-2</v>
+        <v>70.90393458089838</v>
       </c>
       <c r="AV5" s="14">
-        <v>0</v>
+        <v>85.026261622642807</v>
       </c>
       <c r="AW5" s="14">
-        <v>0.211155226281</v>
+        <v>136.13223036656862</v>
       </c>
       <c r="AX5" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY5" s="14">
-        <v>70.90393458089838</v>
-      </c>
-      <c r="AZ5" s="14">
-        <v>85.026261622642807</v>
-      </c>
-      <c r="BA5" s="14">
-        <v>136.13223036656862</v>
-      </c>
-      <c r="BB5" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <f>dimension!A6</f>
         <v>2</v>
@@ -4405,7 +4333,7 @@
         <v>copper//[GLO] copper production &amp; EoL, primary</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4537,31 +4465,19 @@
         <v>4</v>
       </c>
       <c r="AU6" s="14">
-        <v>2.9475893445999997E-2</v>
+        <v>13.746040375543734</v>
       </c>
       <c r="AV6" s="14">
-        <v>0</v>
+        <v>30.911925803651357</v>
       </c>
       <c r="AW6" s="14">
-        <v>0.27909148286000002</v>
+        <v>44.337204013102806</v>
       </c>
       <c r="AX6" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY6" s="14">
-        <v>13.746040375543734</v>
-      </c>
-      <c r="AZ6" s="14">
-        <v>30.911925803651357</v>
-      </c>
-      <c r="BA6" s="14">
-        <v>44.337204013102806</v>
-      </c>
-      <c r="BB6" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <f>dimension!A7</f>
         <v>3</v>
@@ -4571,7 +4487,7 @@
         <v>steel, unalloyed//[GLO] steel production &amp; EoL, converter, unalloyed</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4703,31 +4619,19 @@
         <v>4</v>
       </c>
       <c r="AU7" s="14">
-        <v>7.3821366500000001E-3</v>
+        <v>7.2615196148447705</v>
       </c>
       <c r="AV7" s="14">
-        <v>0</v>
+        <v>8.082792967048043</v>
       </c>
       <c r="AW7" s="14">
-        <v>1.3927581214500001E-2</v>
+        <v>9.1841591100751767</v>
       </c>
       <c r="AX7" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY7" s="14">
-        <v>7.2615196148447705</v>
-      </c>
-      <c r="AZ7" s="14">
-        <v>8.082792967048043</v>
-      </c>
-      <c r="BA7" s="14">
-        <v>9.1841591100751767</v>
-      </c>
-      <c r="BB7" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <f>dimension!A8</f>
         <v>4</v>
@@ -4737,7 +4641,7 @@
         <v>cast iron//[RoW] cast iron production</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -4869,31 +4773,19 @@
         <v>4</v>
       </c>
       <c r="AU8" s="14">
-        <v>6.8627862000000001E-3</v>
+        <v>20.718716246340197</v>
       </c>
       <c r="AV8" s="14">
-        <v>0</v>
+        <v>22.520046916377616</v>
       </c>
       <c r="AW8" s="14">
-        <v>1.22457907641E-2</v>
+        <v>24.712411912133085</v>
       </c>
       <c r="AX8" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY8" s="14">
-        <v>20.718716246340197</v>
-      </c>
-      <c r="AZ8" s="14">
-        <v>22.520046916377616</v>
-      </c>
-      <c r="BA8" s="14">
-        <v>24.712411912133085</v>
-      </c>
-      <c r="BB8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <f>dimension!A9</f>
         <v>5</v>
@@ -4903,7 +4795,7 @@
         <v>zinc//[GLO] market for zinc</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="21">
         <v>1</v>
@@ -5035,31 +4927,19 @@
         <v>4</v>
       </c>
       <c r="AU9" s="14">
-        <v>1.8327526857899998E-2</v>
+        <v>58.40946775544613</v>
       </c>
       <c r="AV9" s="14">
-        <v>0</v>
+        <v>62.863310087843416</v>
       </c>
       <c r="AW9" s="14">
-        <v>1.8626515962415501E-2</v>
+        <v>67.656767080057577</v>
       </c>
       <c r="AX9" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY9" s="14">
-        <v>58.40946775544613</v>
-      </c>
-      <c r="AZ9" s="14">
-        <v>62.863310087843416</v>
-      </c>
-      <c r="BA9" s="14">
-        <v>67.656767080057577</v>
-      </c>
-      <c r="BB9" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <f>dimension!A10</f>
         <v>6</v>
@@ -5069,7 +4949,7 @@
         <v>lead//[GLO] primary lead production from concentrate</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
@@ -5201,31 +5081,19 @@
         <v>4</v>
       </c>
       <c r="AU10" s="14">
-        <v>7.6293403877999997E-3</v>
+        <v>23.574664141384275</v>
       </c>
       <c r="AV10" s="14">
-        <v>0</v>
+        <v>25.372280883323423</v>
       </c>
       <c r="AW10" s="14">
-        <v>1.50960079624155E-2</v>
+        <v>27.306969607773983</v>
       </c>
       <c r="AX10" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY10" s="14">
-        <v>23.574664141384275</v>
-      </c>
-      <c r="AZ10" s="14">
-        <v>25.372280883323423</v>
-      </c>
-      <c r="BA10" s="14">
-        <v>27.306969607773983</v>
-      </c>
-      <c r="BB10" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <f>dimension!A11</f>
         <v>7</v>
@@ -5235,7 +5103,7 @@
         <v>tin//[GLO] market for tin</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -5367,31 +5235,19 @@
         <v>4</v>
       </c>
       <c r="AU11" s="14">
-        <v>0.309508948964</v>
+        <v>298.32016831920458</v>
       </c>
       <c r="AV11" s="14">
-        <v>0</v>
+        <v>321.06769616573337</v>
       </c>
       <c r="AW11" s="14">
-        <v>0.44026046340441555</v>
+        <v>345.54976990650761</v>
       </c>
       <c r="AX11" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY11" s="14">
-        <v>298.32016831920458</v>
-      </c>
-      <c r="AZ11" s="14">
-        <v>321.06769616573337</v>
-      </c>
-      <c r="BA11" s="14">
-        <v>345.54976990650761</v>
-      </c>
-      <c r="BB11" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <f>dimension!A12</f>
         <v>8</v>
@@ -5401,7 +5257,7 @@
         <v>nickel, 99.5%//[GLO] market for nickel, 99.5%</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
@@ -5533,31 +5389,19 @@
         <v>4</v>
       </c>
       <c r="AU12" s="14">
-        <v>5.9495343881000001E-2</v>
+        <v>146.5092747759403</v>
       </c>
       <c r="AV12" s="14">
-        <v>0</v>
+        <v>157.68090901883343</v>
       </c>
       <c r="AW12" s="14">
-        <v>0.54285475896241553</v>
+        <v>169.70440340401336</v>
       </c>
       <c r="AX12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY12" s="14">
-        <v>146.5092747759403</v>
-      </c>
-      <c r="AZ12" s="14">
-        <v>157.68090901883343</v>
-      </c>
-      <c r="BA12" s="14">
-        <v>169.70440340401336</v>
-      </c>
-      <c r="BB12" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <f>dimension!A13</f>
         <v>9</v>
@@ -5567,7 +5411,7 @@
         <v>gold//[GLO] market for gold</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
@@ -5699,31 +5543,19 @@
         <v>4</v>
       </c>
       <c r="AU13" s="14">
-        <v>45.923944070964005</v>
+        <v>223276.49788431826</v>
       </c>
       <c r="AV13" s="14">
-        <v>0</v>
+        <v>240301.79115133054</v>
       </c>
       <c r="AW13" s="14">
-        <v>67.462105088962403</v>
+        <v>258625.29812903106</v>
       </c>
       <c r="AX13" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY13" s="14">
-        <v>223276.49788431826</v>
-      </c>
-      <c r="AZ13" s="14">
-        <v>240301.79115133054</v>
-      </c>
-      <c r="BA13" s="14">
-        <v>258625.29812903106</v>
-      </c>
-      <c r="BB13" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <f>dimension!A14</f>
         <v>10</v>
@@ -5733,7 +5565,7 @@
         <v>silver//[GLO] market for silver</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="20">
         <v>1</v>
@@ -5865,31 +5697,19 @@
         <v>4</v>
       </c>
       <c r="AU14" s="14">
-        <v>1.2551390635540001</v>
+        <v>4667.1919574222056</v>
       </c>
       <c r="AV14" s="14">
-        <v>0</v>
+        <v>5023.0749659855337</v>
       </c>
       <c r="AW14" s="14">
-        <v>1.4522355889624154</v>
+        <v>5406.0947876346581</v>
       </c>
       <c r="AX14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY14" s="14">
-        <v>4667.1919574222056</v>
-      </c>
-      <c r="AZ14" s="14">
-        <v>5023.0749659855337</v>
-      </c>
-      <c r="BA14" s="14">
-        <v>5406.0947876346581</v>
-      </c>
-      <c r="BB14" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <f>dimension!A15</f>
         <v>11</v>
@@ -5899,7 +5719,7 @@
         <v>platinum//[GLO] market for platinum</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20">
         <v>1</v>
@@ -6031,31 +5851,19 @@
         <v>4</v>
       </c>
       <c r="AU15" s="14">
-        <v>145.684683808964</v>
+        <v>367306.93971632328</v>
       </c>
       <c r="AV15" s="14">
-        <v>0</v>
+        <v>395314.8511039305</v>
       </c>
       <c r="AW15" s="14">
-        <v>497.0095680889624</v>
+        <v>425458.42347551475</v>
       </c>
       <c r="AX15" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY15" s="14">
-        <v>367306.93971632328</v>
-      </c>
-      <c r="AZ15" s="14">
-        <v>395314.8511039305</v>
-      </c>
-      <c r="BA15" s="14">
-        <v>425458.42347551475</v>
-      </c>
-      <c r="BB15" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <f>dimension!A16</f>
         <v>12</v>
@@ -6065,7 +5873,7 @@
         <v>titanium, primary//[GLO] market for titanium, primary</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20">
         <v>1</v>
@@ -6197,31 +6005,19 @@
         <v>4</v>
       </c>
       <c r="AU16" s="14">
-        <v>7.5655311964000008E-2</v>
+        <v>401.11310818520604</v>
       </c>
       <c r="AV16" s="14">
-        <v>0</v>
+        <v>431.69880961283349</v>
       </c>
       <c r="AW16" s="14">
-        <v>0.1075820891784155</v>
+        <v>464.61673382932082</v>
       </c>
       <c r="AX16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY16" s="14">
-        <v>401.11310818520604</v>
-      </c>
-      <c r="AZ16" s="14">
-        <v>431.69880961283349</v>
-      </c>
-      <c r="BA16" s="14">
-        <v>464.61673382932082</v>
-      </c>
-      <c r="BB16" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <f>dimension!A17</f>
         <v>13</v>
@@ -6231,7 +6027,7 @@
         <v>chromium//[GLO] market for chromium</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6363,31 +6159,19 @@
         <v>4</v>
       </c>
       <c r="AU17" s="14">
-        <v>6.9950524964000005E-2</v>
+        <v>239.12939170616718</v>
       </c>
       <c r="AV17" s="14">
-        <v>0</v>
+        <v>257.36350080917344</v>
       </c>
       <c r="AW17" s="14">
-        <v>9.7300722663415495E-2</v>
+        <v>276.98799832243776</v>
       </c>
       <c r="AX17" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY17" s="14">
-        <v>239.12939170616718</v>
-      </c>
-      <c r="AZ17" s="14">
-        <v>257.36350080917344</v>
-      </c>
-      <c r="BA17" s="14">
-        <v>276.98799832243776</v>
-      </c>
-      <c r="BB17" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <f>dimension!A18</f>
         <v>14</v>
@@ -6397,7 +6181,7 @@
         <v>steel, chromium steel 18/8, hot rolled//[GLO] market for steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6529,33 +6313,21 @@
         <v>4</v>
       </c>
       <c r="AU18" s="14">
-        <v>2.5586096249999999E-2</v>
+        <v>30.01670695447017</v>
       </c>
       <c r="AV18" s="14">
-        <v>0</v>
+        <v>32.527028584594618</v>
       </c>
       <c r="AW18" s="14">
-        <v>3.6606948073000002E-2</v>
+        <v>35.482446562788404</v>
       </c>
       <c r="AX18" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY18" s="14">
-        <v>30.01670695447017</v>
-      </c>
-      <c r="AZ18" s="14">
-        <v>32.527028584594618</v>
-      </c>
-      <c r="BA18" s="14">
-        <v>35.482446562788404</v>
-      </c>
-      <c r="BB18" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -6601,12 +6373,8 @@
       <c r="AV19" s="14"/>
       <c r="AW19" s="14"/>
       <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -6651,12 +6419,8 @@
       <c r="AV20" s="14"/>
       <c r="AW20" s="14"/>
       <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -6701,12 +6465,8 @@
       <c r="AV21" s="14"/>
       <c r="AW21" s="14"/>
       <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -6751,12 +6511,8 @@
       <c r="AV22" s="14"/>
       <c r="AW22" s="14"/>
       <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -6801,12 +6557,8 @@
       <c r="AV23" s="14"/>
       <c r="AW23" s="14"/>
       <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -6851,12 +6603,8 @@
       <c r="AV24" s="14"/>
       <c r="AW24" s="14"/>
       <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -6901,12 +6649,8 @@
       <c r="AV25" s="14"/>
       <c r="AW25" s="14"/>
       <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -6951,12 +6695,8 @@
       <c r="AV26" s="14"/>
       <c r="AW26" s="14"/>
       <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -7001,12 +6741,8 @@
       <c r="AV27" s="14"/>
       <c r="AW27" s="14"/>
       <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -7051,12 +6787,8 @@
       <c r="AV28" s="14"/>
       <c r="AW28" s="14"/>
       <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -7101,12 +6833,8 @@
       <c r="AV29" s="14"/>
       <c r="AW29" s="14"/>
       <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -7151,12 +6879,8 @@
       <c r="AV30" s="14"/>
       <c r="AW30" s="14"/>
       <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -7201,12 +6925,8 @@
       <c r="AV31" s="14"/>
       <c r="AW31" s="14"/>
       <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.45">
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -7251,12 +6971,8 @@
       <c r="AV32" s="14"/>
       <c r="AW32" s="14"/>
       <c r="AX32" s="14"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="14"/>
-    </row>
-    <row r="33" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -7301,12 +7017,8 @@
       <c r="AV33" s="14"/>
       <c r="AW33" s="14"/>
       <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-    </row>
-    <row r="34" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -7351,12 +7063,8 @@
       <c r="AV34" s="14"/>
       <c r="AW34" s="14"/>
       <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-    </row>
-    <row r="35" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -7401,12 +7109,8 @@
       <c r="AV35" s="14"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-    </row>
-    <row r="36" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -7451,12 +7155,8 @@
       <c r="AV36" s="14"/>
       <c r="AW36" s="14"/>
       <c r="AX36" s="14"/>
-      <c r="AY36" s="14"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="14"/>
-    </row>
-    <row r="37" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -7501,12 +7201,8 @@
       <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14"/>
-      <c r="AY37" s="14"/>
-      <c r="AZ37" s="14"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="14"/>
-    </row>
-    <row r="38" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -7551,12 +7247,8 @@
       <c r="AV38" s="14"/>
       <c r="AW38" s="14"/>
       <c r="AX38" s="14"/>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="14"/>
-    </row>
-    <row r="39" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -7601,12 +7293,8 @@
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
       <c r="AX39" s="14"/>
-      <c r="AY39" s="14"/>
-      <c r="AZ39" s="14"/>
-      <c r="BA39" s="14"/>
-      <c r="BB39" s="14"/>
-    </row>
-    <row r="40" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -7651,12 +7339,8 @@
       <c r="AV40" s="14"/>
       <c r="AW40" s="14"/>
       <c r="AX40" s="14"/>
-      <c r="AY40" s="14"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="14"/>
-    </row>
-    <row r="41" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -7701,12 +7385,8 @@
       <c r="AV41" s="14"/>
       <c r="AW41" s="14"/>
       <c r="AX41" s="14"/>
-      <c r="AY41" s="14"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="14"/>
-    </row>
-    <row r="42" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -7751,12 +7431,8 @@
       <c r="AV42" s="14"/>
       <c r="AW42" s="14"/>
       <c r="AX42" s="14"/>
-      <c r="AY42" s="14"/>
-      <c r="AZ42" s="14"/>
-      <c r="BA42" s="14"/>
-      <c r="BB42" s="14"/>
-    </row>
-    <row r="43" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -7801,12 +7477,8 @@
       <c r="AV43" s="14"/>
       <c r="AW43" s="14"/>
       <c r="AX43" s="14"/>
-      <c r="AY43" s="14"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="14"/>
-      <c r="BB43" s="14"/>
-    </row>
-    <row r="44" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -7851,12 +7523,8 @@
       <c r="AV44" s="14"/>
       <c r="AW44" s="14"/>
       <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="14"/>
-    </row>
-    <row r="45" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -7901,12 +7569,8 @@
       <c r="AV45" s="14"/>
       <c r="AW45" s="14"/>
       <c r="AX45" s="14"/>
-      <c r="AY45" s="14"/>
-      <c r="AZ45" s="14"/>
-      <c r="BA45" s="14"/>
-      <c r="BB45" s="14"/>
-    </row>
-    <row r="46" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -7951,12 +7615,8 @@
       <c r="AV46" s="14"/>
       <c r="AW46" s="14"/>
       <c r="AX46" s="14"/>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="14"/>
-    </row>
-    <row r="47" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -8001,12 +7661,8 @@
       <c r="AV47" s="14"/>
       <c r="AW47" s="14"/>
       <c r="AX47" s="14"/>
-      <c r="AY47" s="14"/>
-      <c r="AZ47" s="14"/>
-      <c r="BA47" s="14"/>
-      <c r="BB47" s="14"/>
-    </row>
-    <row r="48" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -8051,12 +7707,8 @@
       <c r="AV48" s="14"/>
       <c r="AW48" s="14"/>
       <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
-      <c r="BB48" s="14"/>
-    </row>
-    <row r="49" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -8101,12 +7753,8 @@
       <c r="AV49" s="14"/>
       <c r="AW49" s="14"/>
       <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="14"/>
-    </row>
-    <row r="50" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -8151,12 +7799,8 @@
       <c r="AV50" s="14"/>
       <c r="AW50" s="14"/>
       <c r="AX50" s="14"/>
-      <c r="AY50" s="14"/>
-      <c r="AZ50" s="14"/>
-      <c r="BA50" s="14"/>
-      <c r="BB50" s="14"/>
-    </row>
-    <row r="51" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -8201,12 +7845,8 @@
       <c r="AV51" s="14"/>
       <c r="AW51" s="14"/>
       <c r="AX51" s="14"/>
-      <c r="AY51" s="14"/>
-      <c r="AZ51" s="14"/>
-      <c r="BA51" s="14"/>
-      <c r="BB51" s="14"/>
-    </row>
-    <row r="52" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -8251,12 +7891,8 @@
       <c r="AV52" s="14"/>
       <c r="AW52" s="14"/>
       <c r="AX52" s="14"/>
-      <c r="AY52" s="14"/>
-      <c r="AZ52" s="14"/>
-      <c r="BA52" s="14"/>
-      <c r="BB52" s="14"/>
-    </row>
-    <row r="53" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -8301,12 +7937,8 @@
       <c r="AV53" s="14"/>
       <c r="AW53" s="14"/>
       <c r="AX53" s="14"/>
-      <c r="AY53" s="14"/>
-      <c r="AZ53" s="14"/>
-      <c r="BA53" s="14"/>
-      <c r="BB53" s="14"/>
-    </row>
-    <row r="54" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -8351,12 +7983,8 @@
       <c r="AV54" s="14"/>
       <c r="AW54" s="14"/>
       <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-    </row>
-    <row r="55" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -8401,12 +8029,8 @@
       <c r="AV55" s="14"/>
       <c r="AW55" s="14"/>
       <c r="AX55" s="14"/>
-      <c r="AY55" s="14"/>
-      <c r="AZ55" s="14"/>
-      <c r="BA55" s="14"/>
-      <c r="BB55" s="14"/>
-    </row>
-    <row r="56" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -8451,12 +8075,8 @@
       <c r="AV56" s="14"/>
       <c r="AW56" s="14"/>
       <c r="AX56" s="14"/>
-      <c r="AY56" s="14"/>
-      <c r="AZ56" s="14"/>
-      <c r="BA56" s="14"/>
-      <c r="BB56" s="14"/>
-    </row>
-    <row r="57" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -8501,12 +8121,8 @@
       <c r="AV57" s="14"/>
       <c r="AW57" s="14"/>
       <c r="AX57" s="14"/>
-      <c r="AY57" s="14"/>
-      <c r="AZ57" s="14"/>
-      <c r="BA57" s="14"/>
-      <c r="BB57" s="14"/>
-    </row>
-    <row r="58" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -8551,12 +8167,8 @@
       <c r="AV58" s="14"/>
       <c r="AW58" s="14"/>
       <c r="AX58" s="14"/>
-      <c r="AY58" s="14"/>
-      <c r="AZ58" s="14"/>
-      <c r="BA58" s="14"/>
-      <c r="BB58" s="14"/>
-    </row>
-    <row r="59" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -8601,12 +8213,8 @@
       <c r="AV59" s="14"/>
       <c r="AW59" s="14"/>
       <c r="AX59" s="14"/>
-      <c r="AY59" s="14"/>
-      <c r="AZ59" s="14"/>
-      <c r="BA59" s="14"/>
-      <c r="BB59" s="14"/>
-    </row>
-    <row r="60" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
@@ -8651,12 +8259,8 @@
       <c r="AV60" s="14"/>
       <c r="AW60" s="14"/>
       <c r="AX60" s="14"/>
-      <c r="AY60" s="14"/>
-      <c r="AZ60" s="14"/>
-      <c r="BA60" s="14"/>
-      <c r="BB60" s="14"/>
-    </row>
-    <row r="61" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -8701,12 +8305,8 @@
       <c r="AV61" s="14"/>
       <c r="AW61" s="14"/>
       <c r="AX61" s="14"/>
-      <c r="AY61" s="14"/>
-      <c r="AZ61" s="14"/>
-      <c r="BA61" s="14"/>
-      <c r="BB61" s="14"/>
-    </row>
-    <row r="62" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -8751,12 +8351,8 @@
       <c r="AV62" s="14"/>
       <c r="AW62" s="14"/>
       <c r="AX62" s="14"/>
-      <c r="AY62" s="14"/>
-      <c r="AZ62" s="14"/>
-      <c r="BA62" s="14"/>
-      <c r="BB62" s="14"/>
-    </row>
-    <row r="63" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
@@ -8801,12 +8397,8 @@
       <c r="AV63" s="14"/>
       <c r="AW63" s="14"/>
       <c r="AX63" s="14"/>
-      <c r="AY63" s="14"/>
-      <c r="AZ63" s="14"/>
-      <c r="BA63" s="14"/>
-      <c r="BB63" s="14"/>
-    </row>
-    <row r="64" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -8851,12 +8443,8 @@
       <c r="AV64" s="14"/>
       <c r="AW64" s="14"/>
       <c r="AX64" s="14"/>
-      <c r="AY64" s="14"/>
-      <c r="AZ64" s="14"/>
-      <c r="BA64" s="14"/>
-      <c r="BB64" s="14"/>
-    </row>
-    <row r="65" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -8901,12 +8489,8 @@
       <c r="AV65" s="14"/>
       <c r="AW65" s="14"/>
       <c r="AX65" s="14"/>
-      <c r="AY65" s="14"/>
-      <c r="AZ65" s="14"/>
-      <c r="BA65" s="14"/>
-      <c r="BB65" s="14"/>
-    </row>
-    <row r="66" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
@@ -8951,12 +8535,8 @@
       <c r="AV66" s="14"/>
       <c r="AW66" s="14"/>
       <c r="AX66" s="14"/>
-      <c r="AY66" s="14"/>
-      <c r="AZ66" s="14"/>
-      <c r="BA66" s="14"/>
-      <c r="BB66" s="14"/>
-    </row>
-    <row r="67" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
@@ -9001,12 +8581,8 @@
       <c r="AV67" s="14"/>
       <c r="AW67" s="14"/>
       <c r="AX67" s="14"/>
-      <c r="AY67" s="14"/>
-      <c r="AZ67" s="14"/>
-      <c r="BA67" s="14"/>
-      <c r="BB67" s="14"/>
-    </row>
-    <row r="68" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
@@ -9051,12 +8627,8 @@
       <c r="AV68" s="14"/>
       <c r="AW68" s="14"/>
       <c r="AX68" s="14"/>
-      <c r="AY68" s="14"/>
-      <c r="AZ68" s="14"/>
-      <c r="BA68" s="14"/>
-      <c r="BB68" s="14"/>
-    </row>
-    <row r="69" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
@@ -9101,12 +8673,8 @@
       <c r="AV69" s="14"/>
       <c r="AW69" s="14"/>
       <c r="AX69" s="14"/>
-      <c r="AY69" s="14"/>
-      <c r="AZ69" s="14"/>
-      <c r="BA69" s="14"/>
-      <c r="BB69" s="14"/>
-    </row>
-    <row r="70" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -9151,12 +8719,8 @@
       <c r="AV70" s="14"/>
       <c r="AW70" s="14"/>
       <c r="AX70" s="14"/>
-      <c r="AY70" s="14"/>
-      <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
-    </row>
-    <row r="71" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -9201,12 +8765,8 @@
       <c r="AV71" s="14"/>
       <c r="AW71" s="14"/>
       <c r="AX71" s="14"/>
-      <c r="AY71" s="14"/>
-      <c r="AZ71" s="14"/>
-      <c r="BA71" s="14"/>
-      <c r="BB71" s="14"/>
-    </row>
-    <row r="72" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -9251,12 +8811,8 @@
       <c r="AV72" s="14"/>
       <c r="AW72" s="14"/>
       <c r="AX72" s="14"/>
-      <c r="AY72" s="14"/>
-      <c r="AZ72" s="14"/>
-      <c r="BA72" s="14"/>
-      <c r="BB72" s="14"/>
-    </row>
-    <row r="73" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -9301,12 +8857,8 @@
       <c r="AV73" s="14"/>
       <c r="AW73" s="14"/>
       <c r="AX73" s="14"/>
-      <c r="AY73" s="14"/>
-      <c r="AZ73" s="14"/>
-      <c r="BA73" s="14"/>
-      <c r="BB73" s="14"/>
-    </row>
-    <row r="74" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -9351,12 +8903,8 @@
       <c r="AV74" s="14"/>
       <c r="AW74" s="14"/>
       <c r="AX74" s="14"/>
-      <c r="AY74" s="14"/>
-      <c r="AZ74" s="14"/>
-      <c r="BA74" s="14"/>
-      <c r="BB74" s="14"/>
-    </row>
-    <row r="75" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
@@ -9401,12 +8949,8 @@
       <c r="AV75" s="14"/>
       <c r="AW75" s="14"/>
       <c r="AX75" s="14"/>
-      <c r="AY75" s="14"/>
-      <c r="AZ75" s="14"/>
-      <c r="BA75" s="14"/>
-      <c r="BB75" s="14"/>
-    </row>
-    <row r="76" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
@@ -9451,12 +8995,8 @@
       <c r="AV76" s="14"/>
       <c r="AW76" s="14"/>
       <c r="AX76" s="14"/>
-      <c r="AY76" s="14"/>
-      <c r="AZ76" s="14"/>
-      <c r="BA76" s="14"/>
-      <c r="BB76" s="14"/>
-    </row>
-    <row r="77" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
@@ -9501,12 +9041,8 @@
       <c r="AV77" s="14"/>
       <c r="AW77" s="14"/>
       <c r="AX77" s="14"/>
-      <c r="AY77" s="14"/>
-      <c r="AZ77" s="14"/>
-      <c r="BA77" s="14"/>
-      <c r="BB77" s="14"/>
-    </row>
-    <row r="78" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
@@ -9551,12 +9087,8 @@
       <c r="AV78" s="14"/>
       <c r="AW78" s="14"/>
       <c r="AX78" s="14"/>
-      <c r="AY78" s="14"/>
-      <c r="AZ78" s="14"/>
-      <c r="BA78" s="14"/>
-      <c r="BB78" s="14"/>
-    </row>
-    <row r="79" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -9601,12 +9133,8 @@
       <c r="AV79" s="14"/>
       <c r="AW79" s="14"/>
       <c r="AX79" s="14"/>
-      <c r="AY79" s="14"/>
-      <c r="AZ79" s="14"/>
-      <c r="BA79" s="14"/>
-      <c r="BB79" s="14"/>
-    </row>
-    <row r="80" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -9651,12 +9179,8 @@
       <c r="AV80" s="14"/>
       <c r="AW80" s="14"/>
       <c r="AX80" s="14"/>
-      <c r="AY80" s="14"/>
-      <c r="AZ80" s="14"/>
-      <c r="BA80" s="14"/>
-      <c r="BB80" s="14"/>
-    </row>
-    <row r="81" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -9701,12 +9225,8 @@
       <c r="AV81" s="14"/>
       <c r="AW81" s="14"/>
       <c r="AX81" s="14"/>
-      <c r="AY81" s="14"/>
-      <c r="AZ81" s="14"/>
-      <c r="BA81" s="14"/>
-      <c r="BB81" s="14"/>
-    </row>
-    <row r="82" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
@@ -9751,12 +9271,8 @@
       <c r="AV82" s="14"/>
       <c r="AW82" s="14"/>
       <c r="AX82" s="14"/>
-      <c r="AY82" s="14"/>
-      <c r="AZ82" s="14"/>
-      <c r="BA82" s="14"/>
-      <c r="BB82" s="14"/>
-    </row>
-    <row r="83" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
@@ -9801,12 +9317,8 @@
       <c r="AV83" s="14"/>
       <c r="AW83" s="14"/>
       <c r="AX83" s="14"/>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14"/>
-    </row>
-    <row r="84" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -9851,12 +9363,8 @@
       <c r="AV84" s="14"/>
       <c r="AW84" s="14"/>
       <c r="AX84" s="14"/>
-      <c r="AY84" s="14"/>
-      <c r="AZ84" s="14"/>
-      <c r="BA84" s="14"/>
-      <c r="BB84" s="14"/>
-    </row>
-    <row r="85" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -9901,12 +9409,8 @@
       <c r="AV85" s="14"/>
       <c r="AW85" s="14"/>
       <c r="AX85" s="14"/>
-      <c r="AY85" s="14"/>
-      <c r="AZ85" s="14"/>
-      <c r="BA85" s="14"/>
-      <c r="BB85" s="14"/>
-    </row>
-    <row r="86" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -9951,12 +9455,8 @@
       <c r="AV86" s="14"/>
       <c r="AW86" s="14"/>
       <c r="AX86" s="14"/>
-      <c r="AY86" s="14"/>
-      <c r="AZ86" s="14"/>
-      <c r="BA86" s="14"/>
-      <c r="BB86" s="14"/>
-    </row>
-    <row r="87" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
@@ -10001,12 +9501,8 @@
       <c r="AV87" s="14"/>
       <c r="AW87" s="14"/>
       <c r="AX87" s="14"/>
-      <c r="AY87" s="14"/>
-      <c r="AZ87" s="14"/>
-      <c r="BA87" s="14"/>
-      <c r="BB87" s="14"/>
-    </row>
-    <row r="88" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
@@ -10051,12 +9547,8 @@
       <c r="AV88" s="14"/>
       <c r="AW88" s="14"/>
       <c r="AX88" s="14"/>
-      <c r="AY88" s="14"/>
-      <c r="AZ88" s="14"/>
-      <c r="BA88" s="14"/>
-      <c r="BB88" s="14"/>
-    </row>
-    <row r="89" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
@@ -10101,12 +9593,8 @@
       <c r="AV89" s="14"/>
       <c r="AW89" s="14"/>
       <c r="AX89" s="14"/>
-      <c r="AY89" s="14"/>
-      <c r="AZ89" s="14"/>
-      <c r="BA89" s="14"/>
-      <c r="BB89" s="14"/>
-    </row>
-    <row r="90" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -10151,12 +9639,8 @@
       <c r="AV90" s="14"/>
       <c r="AW90" s="14"/>
       <c r="AX90" s="14"/>
-      <c r="AY90" s="14"/>
-      <c r="AZ90" s="14"/>
-      <c r="BA90" s="14"/>
-      <c r="BB90" s="14"/>
-    </row>
-    <row r="91" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
@@ -10201,12 +9685,8 @@
       <c r="AV91" s="14"/>
       <c r="AW91" s="14"/>
       <c r="AX91" s="14"/>
-      <c r="AY91" s="14"/>
-      <c r="AZ91" s="14"/>
-      <c r="BA91" s="14"/>
-      <c r="BB91" s="14"/>
-    </row>
-    <row r="92" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
@@ -10251,12 +9731,8 @@
       <c r="AV92" s="14"/>
       <c r="AW92" s="14"/>
       <c r="AX92" s="14"/>
-      <c r="AY92" s="14"/>
-      <c r="AZ92" s="14"/>
-      <c r="BA92" s="14"/>
-      <c r="BB92" s="14"/>
-    </row>
-    <row r="93" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
@@ -10301,12 +9777,8 @@
       <c r="AV93" s="14"/>
       <c r="AW93" s="14"/>
       <c r="AX93" s="14"/>
-      <c r="AY93" s="14"/>
-      <c r="AZ93" s="14"/>
-      <c r="BA93" s="14"/>
-      <c r="BB93" s="14"/>
-    </row>
-    <row r="94" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
@@ -10351,12 +9823,8 @@
       <c r="AV94" s="14"/>
       <c r="AW94" s="14"/>
       <c r="AX94" s="14"/>
-      <c r="AY94" s="14"/>
-      <c r="AZ94" s="14"/>
-      <c r="BA94" s="14"/>
-      <c r="BB94" s="14"/>
-    </row>
-    <row r="95" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
@@ -10401,12 +9869,8 @@
       <c r="AV95" s="14"/>
       <c r="AW95" s="14"/>
       <c r="AX95" s="14"/>
-      <c r="AY95" s="14"/>
-      <c r="AZ95" s="14"/>
-      <c r="BA95" s="14"/>
-      <c r="BB95" s="14"/>
-    </row>
-    <row r="96" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
@@ -10451,12 +9915,8 @@
       <c r="AV96" s="14"/>
       <c r="AW96" s="14"/>
       <c r="AX96" s="14"/>
-      <c r="AY96" s="14"/>
-      <c r="AZ96" s="14"/>
-      <c r="BA96" s="14"/>
-      <c r="BB96" s="14"/>
-    </row>
-    <row r="97" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
@@ -10501,12 +9961,8 @@
       <c r="AV97" s="14"/>
       <c r="AW97" s="14"/>
       <c r="AX97" s="14"/>
-      <c r="AY97" s="14"/>
-      <c r="AZ97" s="14"/>
-      <c r="BA97" s="14"/>
-      <c r="BB97" s="14"/>
-    </row>
-    <row r="98" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
@@ -10551,12 +10007,8 @@
       <c r="AV98" s="14"/>
       <c r="AW98" s="14"/>
       <c r="AX98" s="14"/>
-      <c r="AY98" s="14"/>
-      <c r="AZ98" s="14"/>
-      <c r="BA98" s="14"/>
-      <c r="BB98" s="14"/>
-    </row>
-    <row r="99" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
@@ -10601,12 +10053,8 @@
       <c r="AV99" s="14"/>
       <c r="AW99" s="14"/>
       <c r="AX99" s="14"/>
-      <c r="AY99" s="14"/>
-      <c r="AZ99" s="14"/>
-      <c r="BA99" s="14"/>
-      <c r="BB99" s="14"/>
-    </row>
-    <row r="100" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
@@ -10651,12 +10099,8 @@
       <c r="AV100" s="14"/>
       <c r="AW100" s="14"/>
       <c r="AX100" s="14"/>
-      <c r="AY100" s="14"/>
-      <c r="AZ100" s="14"/>
-      <c r="BA100" s="14"/>
-      <c r="BB100" s="14"/>
-    </row>
-    <row r="101" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
@@ -10701,12 +10145,8 @@
       <c r="AV101" s="14"/>
       <c r="AW101" s="14"/>
       <c r="AX101" s="14"/>
-      <c r="AY101" s="14"/>
-      <c r="AZ101" s="14"/>
-      <c r="BA101" s="14"/>
-      <c r="BB101" s="14"/>
-    </row>
-    <row r="102" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -10751,12 +10191,8 @@
       <c r="AV102" s="14"/>
       <c r="AW102" s="14"/>
       <c r="AX102" s="14"/>
-      <c r="AY102" s="14"/>
-      <c r="AZ102" s="14"/>
-      <c r="BA102" s="14"/>
-      <c r="BB102" s="14"/>
-    </row>
-    <row r="103" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
@@ -10801,12 +10237,8 @@
       <c r="AV103" s="14"/>
       <c r="AW103" s="14"/>
       <c r="AX103" s="14"/>
-      <c r="AY103" s="14"/>
-      <c r="AZ103" s="14"/>
-      <c r="BA103" s="14"/>
-      <c r="BB103" s="14"/>
-    </row>
-    <row r="104" spans="7:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="7:50" x14ac:dyDescent="0.45">
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
@@ -10851,15 +10283,19 @@
       <c r="AV104" s="14"/>
       <c r="AW104" s="14"/>
       <c r="AX104" s="14"/>
-      <c r="AY104" s="14"/>
-      <c r="AZ104" s="14"/>
-      <c r="BA104" s="14"/>
-      <c r="BB104" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="O1:R1"/>
@@ -10870,19 +10306,9 @@
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BA2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10890,66 +10316,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L104"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.77734375" style="26"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.81640625" style="26"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K3" s="6">
         <f>SUM(K5:K18)</f>
         <v>1807807389000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM(N5:N18)</f>
+        <v>1211594924073.3682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>UI!A5</f>
         <v>1</v>
@@ -10976,8 +10432,8 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28">
-        <f>K5/$K$3</f>
-        <v>3.2580904557858295E-2</v>
+        <f>N5/$N$3</f>
+        <v>3.472400530532508E-2</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="7"/>
@@ -10985,10 +10441,17 @@
         <v>58900000000</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M5">
+        <v>1.4</v>
+      </c>
+      <c r="N5" s="6">
+        <f>K5/(M5)</f>
+        <v>42071428571.428574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>UI!A6</f>
         <v>2</v>
@@ -11015,8 +10478,8 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28">
-        <f t="shared" ref="H6:H18" si="0">K6/$K$3</f>
-        <v>1.2722594309520217E-2</v>
+        <f t="shared" ref="H6:H18" si="0">N6/$N$3</f>
+        <v>1.3958266389087528E-2</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="7"/>
@@ -11024,10 +10487,17 @@
         <v>23000000000</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>1.36</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N18" si="1">K6/(M6)</f>
+        <v>16911764705.882351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>UI!A7</f>
         <v>3</v>
@@ -11055,7 +10525,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28">
         <f t="shared" si="0"/>
-        <v>0.90164472715295441</v>
+        <v>0.90290881036852166</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="7"/>
@@ -11063,10 +10533,17 @@
         <v>1630000000000</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M7">
+        <v>1.49</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
+        <v>1093959731543.6241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>UI!A8</f>
         <v>4</v>
@@ -11094,7 +10571,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28">
         <f t="shared" si="0"/>
-        <v>1.2722594309520217E-3</v>
+        <v>1.2740431066549692E-3</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="7"/>
@@ -11102,10 +10579,17 @@
         <v>2300000000</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="M8">
+        <v>1.49</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="1"/>
+        <v>1543624161.0738256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>UI!A9</f>
         <v>5</v>
@@ -11133,7 +10617,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>7.4676097034140397E-3</v>
+        <v>6.9639611658599745E-3</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="7"/>
@@ -11141,10 +10625,17 @@
         <v>13500000000</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M9">
+        <v>1.6</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="1"/>
+        <v>8437500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>UI!A10</f>
         <v>6</v>
@@ -11172,7 +10663,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28">
         <f t="shared" si="0"/>
-        <v>2.7381235579184812E-3</v>
+        <v>2.5534524274819907E-3</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="7"/>
@@ -11180,10 +10671,17 @@
         <v>4950000000</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M10">
+        <v>1.6</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="1"/>
+        <v>3093750000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>UI!A11</f>
         <v>7</v>
@@ -11211,7 +10709,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28">
         <f t="shared" si="0"/>
-        <v>1.5986216328049314E-4</v>
+        <v>1.4908035384692835E-4</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="7"/>
@@ -11219,10 +10717,17 @@
         <v>289000000</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M11">
+        <v>1.6</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
+        <v>180625000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>UI!A12</f>
         <v>8</v>
@@ -11250,7 +10755,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28">
         <f t="shared" si="0"/>
-        <v>1.2611963054654824E-3</v>
+        <v>9.8524453492562303E-4</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="7"/>
@@ -11258,10 +10763,17 @@
         <v>2280000000</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M12">
+        <v>1.91</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="1"/>
+        <v>1193717277.4869111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>UI!A13</f>
         <v>9</v>
@@ -11289,7 +10801,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28">
         <f t="shared" si="0"/>
-        <v>1.7147844504135943E-6</v>
+        <v>1.3395868676620312E-6</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="7"/>
@@ -11297,10 +10809,17 @@
         <v>3100000</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M13">
+        <v>1.91</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="1"/>
+        <v>1623036.6492146598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>UI!A14</f>
         <v>10</v>
@@ -11328,7 +10847,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28">
         <f t="shared" si="0"/>
-        <v>1.3884222485606845E-5</v>
+        <v>1.0846332380102251E-5</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="7"/>
@@ -11336,10 +10855,17 @@
         <v>25100000</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M14">
+        <v>1.91</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>13141361.256544502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>UI!A15</f>
         <v>11</v>
@@ -11367,7 +10893,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28">
         <f t="shared" si="0"/>
-        <v>1.0454653584779656E-7</v>
+        <v>8.1671586447781902E-8</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="7"/>
@@ -11375,10 +10901,17 @@
         <v>189000</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M15">
+        <v>1.91</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="1"/>
+        <v>98952.879581151836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>UI!A16</f>
         <v>12</v>
@@ -11406,7 +10939,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28">
         <f t="shared" si="0"/>
-        <v>8.8505003892314551E-5</v>
+        <v>6.9139967363201604E-5</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="7"/>
@@ -11414,10 +10947,17 @@
         <v>160000000</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M16">
+        <v>1.91</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>83769633.507853404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>UI!A17</f>
         <v>13</v>
@@ -11445,7 +10985,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28">
         <f t="shared" si="0"/>
-        <v>1.6815950739539762E-2</v>
+        <v>1.3136593799008306E-2</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="7"/>
@@ -11453,10 +10993,17 @@
         <v>30400000000</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M17">
+        <v>1.91</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="1"/>
+        <v>15916230366.492147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>UI!A18</f>
         <v>14</v>
@@ -11484,7 +11031,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28">
         <f t="shared" si="0"/>
-        <v>2.3232563521732568E-2</v>
+        <v>2.3265134991090744E-2</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="7"/>
@@ -11492,10 +11039,17 @@
         <v>42000000000</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="M18">
+        <v>1.49</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="1"/>
+        <v>28187919463.08725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>UI!A19</f>
         <v xml:space="preserve"> </v>
@@ -11524,7 +11078,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>UI!A20</f>
         <v>0</v>
@@ -11553,7 +11107,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>UI!A21</f>
         <v>0</v>
@@ -11582,7 +11136,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>UI!A22</f>
         <v>0</v>
@@ -11611,7 +11165,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>UI!A23</f>
         <v>0</v>
@@ -11640,7 +11194,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>UI!A24</f>
         <v>0</v>
@@ -11669,7 +11223,7 @@
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>UI!A25</f>
         <v>0</v>
@@ -11698,7 +11252,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>UI!A26</f>
         <v>0</v>
@@ -11727,7 +11281,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>UI!A27</f>
         <v>0</v>
@@ -11756,7 +11310,7 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>UI!A28</f>
         <v>0</v>
@@ -11785,7 +11339,7 @@
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>UI!A29</f>
         <v>0</v>
@@ -11814,7 +11368,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>UI!A30</f>
         <v>0</v>
@@ -11843,7 +11397,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>UI!A31</f>
         <v>0</v>
@@ -11872,7 +11426,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>UI!A32</f>
         <v>0</v>
@@ -11901,7 +11455,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>UI!A33</f>
         <v>0</v>
@@ -11930,7 +11484,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>UI!A34</f>
         <v>0</v>
@@ -11959,7 +11513,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>UI!A35</f>
         <v>0</v>
@@ -11988,7 +11542,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>UI!A36</f>
         <v>0</v>
@@ -12017,7 +11571,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>UI!A37</f>
         <v>0</v>
@@ -12046,7 +11600,7 @@
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>UI!A38</f>
         <v>0</v>
@@ -12075,7 +11629,7 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>UI!A39</f>
         <v>0</v>
@@ -12104,7 +11658,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>UI!A40</f>
         <v>0</v>
@@ -12133,7 +11687,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>UI!A41</f>
         <v>0</v>
@@ -12162,7 +11716,7 @@
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>UI!A42</f>
         <v>0</v>
@@ -12191,7 +11745,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>UI!A43</f>
         <v>0</v>
@@ -12220,7 +11774,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>UI!A44</f>
         <v>0</v>
@@ -12249,7 +11803,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>UI!A45</f>
         <v>0</v>
@@ -12278,7 +11832,7 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>UI!A46</f>
         <v>0</v>
@@ -12307,7 +11861,7 @@
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>UI!A47</f>
         <v>0</v>
@@ -12336,7 +11890,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>UI!A48</f>
         <v>0</v>
@@ -12365,7 +11919,7 @@
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>UI!A49</f>
         <v>0</v>
@@ -12394,7 +11948,7 @@
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>UI!A50</f>
         <v>0</v>
@@ -12423,7 +11977,7 @@
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>UI!A51</f>
         <v>0</v>
@@ -12452,7 +12006,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>UI!A52</f>
         <v>0</v>
@@ -12481,7 +12035,7 @@
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>UI!A53</f>
         <v>0</v>
@@ -12510,7 +12064,7 @@
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>UI!A54</f>
         <v>0</v>
@@ -12539,7 +12093,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>UI!A55</f>
         <v>0</v>
@@ -12568,7 +12122,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>UI!A56</f>
         <v>0</v>
@@ -12597,7 +12151,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>UI!A57</f>
         <v>0</v>
@@ -12626,7 +12180,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>UI!A58</f>
         <v>0</v>
@@ -12655,7 +12209,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>UI!A59</f>
         <v>0</v>
@@ -12684,7 +12238,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>UI!A60</f>
         <v>0</v>
@@ -12713,7 +12267,7 @@
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>UI!A61</f>
         <v>0</v>
@@ -12742,7 +12296,7 @@
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>UI!A62</f>
         <v>0</v>
@@ -12771,7 +12325,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>UI!A63</f>
         <v>0</v>
@@ -12800,7 +12354,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>UI!A64</f>
         <v>0</v>
@@ -12829,7 +12383,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <f>UI!A65</f>
         <v>0</v>
@@ -12858,7 +12412,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <f>UI!A66</f>
         <v>0</v>
@@ -12887,7 +12441,7 @@
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>UI!A67</f>
         <v>0</v>
@@ -12916,7 +12470,7 @@
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>UI!A68</f>
         <v>0</v>
@@ -12945,7 +12499,7 @@
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <f>UI!A69</f>
         <v>0</v>
@@ -12974,7 +12528,7 @@
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>UI!A70</f>
         <v>0</v>
@@ -13003,7 +12557,7 @@
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>UI!A71</f>
         <v>0</v>
@@ -13032,7 +12586,7 @@
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <f>UI!A72</f>
         <v>0</v>
@@ -13061,7 +12615,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>UI!A73</f>
         <v>0</v>
@@ -13090,7 +12644,7 @@
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>UI!A74</f>
         <v>0</v>
@@ -13119,7 +12673,7 @@
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <f>UI!A75</f>
         <v>0</v>
@@ -13148,7 +12702,7 @@
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>UI!A76</f>
         <v>0</v>
@@ -13177,7 +12731,7 @@
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>UI!A77</f>
         <v>0</v>
@@ -13206,7 +12760,7 @@
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <f>UI!A78</f>
         <v>0</v>
@@ -13235,7 +12789,7 @@
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>UI!A79</f>
         <v>0</v>
@@ -13264,7 +12818,7 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>UI!A80</f>
         <v>0</v>
@@ -13293,7 +12847,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <f>UI!A81</f>
         <v>0</v>
@@ -13322,7 +12876,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>UI!A82</f>
         <v>0</v>
@@ -13351,7 +12905,7 @@
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>UI!A83</f>
         <v>0</v>
@@ -13380,7 +12934,7 @@
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
         <f>UI!A84</f>
         <v>0</v>
@@ -13409,7 +12963,7 @@
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>UI!A85</f>
         <v>0</v>
@@ -13438,7 +12992,7 @@
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>UI!A86</f>
         <v>0</v>
@@ -13467,7 +13021,7 @@
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87">
         <f>UI!A87</f>
         <v>0</v>
@@ -13496,7 +13050,7 @@
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>UI!A88</f>
         <v>0</v>
@@ -13525,7 +13079,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>UI!A89</f>
         <v>0</v>
@@ -13554,7 +13108,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90">
         <f>UI!A90</f>
         <v>0</v>
@@ -13583,7 +13137,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91">
         <f>UI!A91</f>
         <v>0</v>
@@ -13612,7 +13166,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>UI!A92</f>
         <v>0</v>
@@ -13641,7 +13195,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93">
         <f>UI!A93</f>
         <v>0</v>
@@ -13670,7 +13224,7 @@
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94">
         <f>UI!A94</f>
         <v>0</v>
@@ -13699,7 +13253,7 @@
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95">
         <f>UI!A95</f>
         <v>0</v>
@@ -13728,7 +13282,7 @@
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96">
         <f>UI!A96</f>
         <v>0</v>
@@ -13757,7 +13311,7 @@
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97">
         <f>UI!A97</f>
         <v>0</v>
@@ -13786,7 +13340,7 @@
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98">
         <f>UI!A98</f>
         <v>0</v>
@@ -13815,7 +13369,7 @@
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99">
         <f>UI!A99</f>
         <v>0</v>
@@ -13844,7 +13398,7 @@
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>UI!A100</f>
         <v>0</v>
@@ -13873,7 +13427,7 @@
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
         <f>UI!A101</f>
         <v>0</v>
@@ -13902,7 +13456,7 @@
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>UI!A102</f>
         <v>0</v>
@@ -13931,7 +13485,7 @@
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
         <f>UI!A103</f>
         <v>0</v>
@@ -13960,7 +13514,7 @@
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
         <f>UI!A104</f>
         <v>0</v>
@@ -13999,30 +13553,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="10.77734375" style="6"/>
+    <col min="4" max="4" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="10.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(G5:G104)</f>
-        <v>29379444311.05732</v>
+        <v>30550943455.068707</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -14033,7 +13587,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -14043,27 +13597,27 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -14074,7 +13628,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>UI!A5</f>
         <v>1</v>
@@ -14100,7 +13654,7 @@
         <v>Material</v>
       </c>
       <c r="G5" s="24">
-        <v>957208871.0614717</v>
+        <v>1060851122.616492</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -14111,7 +13665,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>UI!A6</f>
         <v>2</v>
@@ -14137,7 +13691,7 @@
         <v>Material</v>
       </c>
       <c r="G6" s="12">
-        <v>373782751.00872409</v>
+        <v>426438207.18379903</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -14148,7 +13702,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>UI!A7</f>
         <v>3</v>
@@ -14174,7 +13728,7 @@
         <v>Material</v>
       </c>
       <c r="G7" s="12">
-        <v>26489821049.748707</v>
+        <v>27584716010.65205</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -14185,7 +13739,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>UI!A8</f>
         <v>4</v>
@@ -14211,7 +13765,7 @@
         <v>Material</v>
       </c>
       <c r="G8" s="12">
-        <v>37378275.100872412</v>
+        <v>38923218.910736024</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -14222,7 +13776,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>UI!A9</f>
         <v>5</v>
@@ -14248,7 +13802,7 @@
         <v>Material</v>
       </c>
       <c r="G9" s="12">
-        <v>219394223.41816413</v>
+        <v>212755583.80148238</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -14259,7 +13813,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>UI!A10</f>
         <v>6</v>
@@ -14285,7 +13839,7 @@
         <v>Material</v>
       </c>
       <c r="G10" s="12">
-        <v>80444548.586660177</v>
+        <v>78010380.727210209</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -14296,7 +13850,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>UI!A11</f>
         <v>7</v>
@@ -14322,7 +13876,7 @@
         <v>Material</v>
       </c>
       <c r="G11" s="12">
-        <v>4696661.5235444019</v>
+        <v>4554545.4606391415</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -14333,7 +13887,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>UI!A12</f>
         <v>8</v>
@@ -14359,7 +13913,7 @@
         <v>Material</v>
       </c>
       <c r="G12" s="12">
-        <v>37053246.621734388</v>
+        <v>30100150.075928167</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -14370,7 +13924,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>UI!A13</f>
         <v>9</v>
@@ -14396,7 +13950,7 @@
         <v>Material</v>
       </c>
       <c r="G13" s="12">
-        <v>50379.414266393243</v>
+        <v>40925.642647095308</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -14407,7 +13961,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>UI!A14</f>
         <v>10</v>
@@ -14433,7 +13987,7 @@
         <v>Material</v>
       </c>
       <c r="G14" s="12">
-        <v>407910.74131821631</v>
+        <v>331365.68723938457</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -14444,7 +13998,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>UI!A15</f>
         <v>11</v>
@@ -14470,7 +14024,7 @@
         <v>Material</v>
       </c>
       <c r="G15" s="12">
-        <v>3071.5191278542979</v>
+        <v>2495.14401945194</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -14481,7 +14035,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>UI!A16</f>
         <v>12</v>
@@ -14507,7 +14061,7 @@
         <v>Material</v>
       </c>
       <c r="G16" s="12">
-        <v>2600227.8331041676</v>
+        <v>2112291.2333984673</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -14518,7 +14072,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>UI!A17</f>
         <v>13</v>
@@ -14544,7 +14098,7 @@
         <v>Material</v>
       </c>
       <c r="G17" s="12">
-        <v>494043288.28979176</v>
+        <v>401335334.34570885</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -14555,7 +14109,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>UI!A18</f>
         <v>14</v>
@@ -14581,7 +14135,7 @@
         <v>Material</v>
       </c>
       <c r="G18" s="12">
-        <v>682559806.18984401</v>
+        <v>710771823.58735359</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -14592,7 +14146,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>UI!A19</f>
         <v xml:space="preserve"> </v>
@@ -14627,7 +14181,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>UI!A20</f>
         <v>0</v>
@@ -14654,7 +14208,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>UI!A21</f>
         <v>0</v>
@@ -14681,7 +14235,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>UI!A22</f>
         <v>0</v>
@@ -14708,7 +14262,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>UI!A23</f>
         <v>0</v>
@@ -14735,7 +14289,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>UI!A24</f>
         <v>0</v>
@@ -14762,7 +14316,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>UI!A25</f>
         <v>0</v>
@@ -14789,7 +14343,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>UI!A26</f>
         <v>0</v>
@@ -14816,7 +14370,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>UI!A27</f>
         <v>0</v>
@@ -14843,7 +14397,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>UI!A28</f>
         <v>0</v>
@@ -14870,7 +14424,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>UI!A29</f>
         <v>0</v>
@@ -14897,7 +14451,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>UI!A30</f>
         <v>0</v>
@@ -14924,7 +14478,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>UI!A31</f>
         <v>0</v>
@@ -14951,7 +14505,7 @@
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>UI!A32</f>
         <v>0</v>
@@ -14978,7 +14532,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>UI!A33</f>
         <v>0</v>
@@ -15005,7 +14559,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>UI!A34</f>
         <v>0</v>
@@ -15032,7 +14586,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>UI!A35</f>
         <v>0</v>
@@ -15059,7 +14613,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>UI!A36</f>
         <v>0</v>
@@ -15086,7 +14640,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>UI!A37</f>
         <v>0</v>
@@ -15113,7 +14667,7 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>UI!A38</f>
         <v>0</v>
@@ -15140,7 +14694,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>UI!A39</f>
         <v>0</v>
@@ -15167,7 +14721,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>UI!A40</f>
         <v>0</v>
@@ -15194,7 +14748,7 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>UI!A41</f>
         <v>0</v>
@@ -15221,7 +14775,7 @@
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>UI!A42</f>
         <v>0</v>
@@ -15248,7 +14802,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>UI!A43</f>
         <v>0</v>
@@ -15275,7 +14829,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>UI!A44</f>
         <v>0</v>
@@ -15302,7 +14856,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>UI!A45</f>
         <v>0</v>
@@ -15329,7 +14883,7 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>UI!A46</f>
         <v>0</v>
@@ -15356,7 +14910,7 @@
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>UI!A47</f>
         <v>0</v>
@@ -15383,7 +14937,7 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>UI!A48</f>
         <v>0</v>
@@ -15410,7 +14964,7 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>UI!A49</f>
         <v>0</v>
@@ -15437,7 +14991,7 @@
       </c>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>UI!A50</f>
         <v>0</v>
@@ -15464,7 +15018,7 @@
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>UI!A51</f>
         <v>0</v>
@@ -15491,7 +15045,7 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>UI!A52</f>
         <v>0</v>
@@ -15518,7 +15072,7 @@
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>UI!A53</f>
         <v>0</v>
@@ -15545,7 +15099,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>UI!A54</f>
         <v>0</v>
@@ -15572,7 +15126,7 @@
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>UI!A55</f>
         <v>0</v>
@@ -15599,7 +15153,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>UI!A56</f>
         <v>0</v>
@@ -15626,7 +15180,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>UI!A57</f>
         <v>0</v>
@@ -15653,7 +15207,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>UI!A58</f>
         <v>0</v>
@@ -15680,7 +15234,7 @@
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>UI!A59</f>
         <v>0</v>
@@ -15707,7 +15261,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>UI!A60</f>
         <v>0</v>
@@ -15734,7 +15288,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>UI!A61</f>
         <v>0</v>
@@ -15761,7 +15315,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>UI!A62</f>
         <v>0</v>
@@ -15788,7 +15342,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>UI!A63</f>
         <v>0</v>
@@ -15815,7 +15369,7 @@
       </c>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>UI!A64</f>
         <v>0</v>
@@ -15842,7 +15396,7 @@
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <f>UI!A65</f>
         <v>0</v>
@@ -15869,7 +15423,7 @@
       </c>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <f>UI!A66</f>
         <v>0</v>
@@ -15896,7 +15450,7 @@
       </c>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>UI!A67</f>
         <v>0</v>
@@ -15923,7 +15477,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>UI!A68</f>
         <v>0</v>
@@ -15950,7 +15504,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <f>UI!A69</f>
         <v>0</v>
@@ -15977,7 +15531,7 @@
       </c>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>UI!A70</f>
         <v>0</v>
@@ -16004,7 +15558,7 @@
       </c>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>UI!A71</f>
         <v>0</v>
@@ -16031,7 +15585,7 @@
       </c>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <f>UI!A72</f>
         <v>0</v>
@@ -16058,7 +15612,7 @@
       </c>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>UI!A73</f>
         <v>0</v>
@@ -16085,7 +15639,7 @@
       </c>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>UI!A74</f>
         <v>0</v>
@@ -16112,7 +15666,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <f>UI!A75</f>
         <v>0</v>
@@ -16139,7 +15693,7 @@
       </c>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>UI!A76</f>
         <v>0</v>
@@ -16166,7 +15720,7 @@
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>UI!A77</f>
         <v>0</v>
@@ -16193,7 +15747,7 @@
       </c>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <f>UI!A78</f>
         <v>0</v>
@@ -16220,7 +15774,7 @@
       </c>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>UI!A79</f>
         <v>0</v>
@@ -16247,7 +15801,7 @@
       </c>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>UI!A80</f>
         <v>0</v>
@@ -16274,7 +15828,7 @@
       </c>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <f>UI!A81</f>
         <v>0</v>
@@ -16301,7 +15855,7 @@
       </c>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>UI!A82</f>
         <v>0</v>
@@ -16328,7 +15882,7 @@
       </c>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>UI!A83</f>
         <v>0</v>
@@ -16355,7 +15909,7 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <f>UI!A84</f>
         <v>0</v>
@@ -16382,7 +15936,7 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>UI!A85</f>
         <v>0</v>
@@ -16409,7 +15963,7 @@
       </c>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>UI!A86</f>
         <v>0</v>
@@ -16436,7 +15990,7 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <f>UI!A87</f>
         <v>0</v>
@@ -16463,7 +16017,7 @@
       </c>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>UI!A88</f>
         <v>0</v>
@@ -16490,7 +16044,7 @@
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>UI!A89</f>
         <v>0</v>
@@ -16517,7 +16071,7 @@
       </c>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <f>UI!A90</f>
         <v>0</v>
@@ -16544,7 +16098,7 @@
       </c>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <f>UI!A91</f>
         <v>0</v>
@@ -16571,7 +16125,7 @@
       </c>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>UI!A92</f>
         <v>0</v>
@@ -16598,7 +16152,7 @@
       </c>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <f>UI!A93</f>
         <v>0</v>
@@ -16625,7 +16179,7 @@
       </c>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <f>UI!A94</f>
         <v>0</v>
@@ -16652,7 +16206,7 @@
       </c>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <f>UI!A95</f>
         <v>0</v>
@@ -16679,7 +16233,7 @@
       </c>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <f>UI!A96</f>
         <v>0</v>
@@ -16706,7 +16260,7 @@
       </c>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <f>UI!A97</f>
         <v>0</v>
@@ -16733,7 +16287,7 @@
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <f>UI!A98</f>
         <v>0</v>
@@ -16760,7 +16314,7 @@
       </c>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <f>UI!A99</f>
         <v>0</v>
@@ -16787,7 +16341,7 @@
       </c>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>UI!A100</f>
         <v>0</v>
@@ -16814,7 +16368,7 @@
       </c>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
         <f>UI!A101</f>
         <v>0</v>
@@ -16841,7 +16395,7 @@
       </c>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>UI!A102</f>
         <v>0</v>
@@ -16868,7 +16422,7 @@
       </c>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
         <f>UI!A103</f>
         <v>0</v>
@@ -16895,7 +16449,7 @@
       </c>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104">
         <f>UI!A104</f>
         <v>0</v>
@@ -16932,61 +16486,61 @@
   <dimension ref="A2:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(G5:G18)</f>
-        <v>1807807389000</v>
+        <v>1211594924073.3682</v>
       </c>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>UI!A5</f>
         <v>1</v>
@@ -17012,15 +16566,15 @@
         <v>Material</v>
       </c>
       <c r="G5" s="16">
-        <f>SoP!K5</f>
-        <v>58900000000</v>
+        <f>SoP!N5</f>
+        <v>42071428571.428574</v>
       </c>
       <c r="H5" s="29">
         <f>G5/result!G5</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>UI!A6</f>
         <v>2</v>
@@ -17046,15 +16600,15 @@
         <v>Material</v>
       </c>
       <c r="G6" s="16">
-        <f>SoP!K6</f>
-        <v>23000000000</v>
+        <f>SoP!N6</f>
+        <v>16911764705.882351</v>
       </c>
       <c r="H6" s="29">
         <f>G6/result!G6</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>UI!A7</f>
         <v>3</v>
@@ -17080,15 +16634,15 @@
         <v>Material</v>
       </c>
       <c r="G7" s="16">
-        <f>SoP!K7</f>
-        <v>1630000000000</v>
+        <f>SoP!N7</f>
+        <v>1093959731543.6241</v>
       </c>
       <c r="H7" s="29">
         <f>G7/result!G7</f>
-        <v>61.533069511447792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>UI!A8</f>
         <v>4</v>
@@ -17114,15 +16668,15 @@
         <v>Material</v>
       </c>
       <c r="G8" s="16">
-        <f>SoP!K8</f>
-        <v>2300000000</v>
+        <f>SoP!N8</f>
+        <v>1543624161.0738256</v>
       </c>
       <c r="H8" s="29">
         <f>G8/result!G8</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>UI!A9</f>
         <v>5</v>
@@ -17148,15 +16702,15 @@
         <v>Material</v>
       </c>
       <c r="G9" s="16">
-        <f>SoP!K9</f>
-        <v>13500000000</v>
+        <f>SoP!N9</f>
+        <v>8437500000</v>
       </c>
       <c r="H9" s="29">
         <f>G9/result!G9</f>
-        <v>61.533069511447792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>UI!A10</f>
         <v>6</v>
@@ -17182,15 +16736,15 @@
         <v>Material</v>
       </c>
       <c r="G10" s="16">
-        <f>SoP!K10</f>
-        <v>4950000000</v>
+        <f>SoP!N10</f>
+        <v>3093750000</v>
       </c>
       <c r="H10" s="29">
         <f>G10/result!G10</f>
-        <v>61.533069511447792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>UI!A11</f>
         <v>7</v>
@@ -17216,15 +16770,15 @@
         <v>Material</v>
       </c>
       <c r="G11" s="16">
-        <f>SoP!K11</f>
-        <v>289000000</v>
+        <f>SoP!N11</f>
+        <v>180625000</v>
       </c>
       <c r="H11" s="29">
         <f>G11/result!G11</f>
-        <v>61.533069511447799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>UI!A12</f>
         <v>8</v>
@@ -17250,15 +16804,15 @@
         <v>Material</v>
       </c>
       <c r="G12" s="16">
-        <f>SoP!K12</f>
-        <v>2280000000</v>
+        <f>SoP!N12</f>
+        <v>1193717277.4869111</v>
       </c>
       <c r="H12" s="29">
         <f>G12/result!G12</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>UI!A13</f>
         <v>9</v>
@@ -17284,15 +16838,15 @@
         <v>Material</v>
       </c>
       <c r="G13" s="16">
-        <f>SoP!K13</f>
-        <v>3100000</v>
+        <f>SoP!N13</f>
+        <v>1623036.6492146598</v>
       </c>
       <c r="H13" s="29">
         <f>G13/result!G13</f>
-        <v>61.533069511447792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>UI!A14</f>
         <v>10</v>
@@ -17318,15 +16872,15 @@
         <v>Material</v>
       </c>
       <c r="G14" s="16">
-        <f>SoP!K14</f>
-        <v>25100000</v>
+        <f>SoP!N14</f>
+        <v>13141361.256544502</v>
       </c>
       <c r="H14" s="29">
         <f>G14/result!G14</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>UI!A15</f>
         <v>11</v>
@@ -17352,15 +16906,15 @@
         <v>Material</v>
       </c>
       <c r="G15" s="16">
-        <f>SoP!K15</f>
-        <v>189000</v>
+        <f>SoP!N15</f>
+        <v>98952.879581151836</v>
       </c>
       <c r="H15" s="29">
         <f>G15/result!G15</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>UI!A16</f>
         <v>12</v>
@@ -17386,15 +16940,15 @@
         <v>Material</v>
       </c>
       <c r="G16" s="16">
-        <f>SoP!K16</f>
-        <v>160000000</v>
+        <f>SoP!N16</f>
+        <v>83769633.507853404</v>
       </c>
       <c r="H16" s="29">
         <f>G16/result!G16</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>UI!A17</f>
         <v>13</v>
@@ -17420,15 +16974,15 @@
         <v>Material</v>
       </c>
       <c r="G17" s="16">
-        <f>SoP!K17</f>
-        <v>30400000000</v>
+        <f>SoP!N17</f>
+        <v>15916230366.492147</v>
       </c>
       <c r="H17" s="29">
         <f>G17/result!G17</f>
-        <v>61.533069511447799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.658183579674457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>UI!A18</f>
         <v>14</v>
@@ -17454,15 +17008,15 @@
         <v>Material</v>
       </c>
       <c r="G18" s="16">
-        <f>SoP!K18</f>
-        <v>42000000000</v>
+        <f>SoP!N18</f>
+        <v>28187919463.08725</v>
       </c>
       <c r="H18" s="29">
         <f>G18/result!G18</f>
-        <v>61.533069511447785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.65818357967445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>UI!A19</f>
         <v xml:space="preserve"> </v>
@@ -17488,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>UI!A20</f>
         <v>0</v>
@@ -17514,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>UI!A21</f>
         <v>0</v>
@@ -17540,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>UI!A22</f>
         <v>0</v>
@@ -17566,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>UI!A23</f>
         <v>0</v>
@@ -17592,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>UI!A24</f>
         <v>0</v>
@@ -17618,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>UI!A25</f>
         <v>0</v>
@@ -17644,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>UI!A26</f>
         <v>0</v>
@@ -17670,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>UI!A27</f>
         <v>0</v>
@@ -17696,7 +17250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>UI!A28</f>
         <v>0</v>
@@ -17722,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>UI!A29</f>
         <v>0</v>
@@ -17748,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>UI!A30</f>
         <v>0</v>
@@ -17774,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>UI!A31</f>
         <v>0</v>
@@ -17800,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>UI!A32</f>
         <v>0</v>
@@ -17826,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>UI!A33</f>
         <v>0</v>
@@ -17852,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>UI!A34</f>
         <v>0</v>
@@ -17878,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>UI!A35</f>
         <v>0</v>
@@ -17904,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>UI!A36</f>
         <v>0</v>
@@ -17930,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>UI!A37</f>
         <v>0</v>
@@ -17956,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>UI!A38</f>
         <v>0</v>
@@ -17982,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>UI!A39</f>
         <v>0</v>
@@ -18008,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>UI!A40</f>
         <v>0</v>
@@ -18034,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>UI!A41</f>
         <v>0</v>
@@ -18060,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>UI!A42</f>
         <v>0</v>
@@ -18086,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>UI!A43</f>
         <v>0</v>
@@ -18112,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>UI!A44</f>
         <v>0</v>
@@ -18138,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>UI!A45</f>
         <v>0</v>
@@ -18164,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>UI!A46</f>
         <v>0</v>
@@ -18190,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>UI!A47</f>
         <v>0</v>
@@ -18216,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>UI!A48</f>
         <v>0</v>
@@ -18242,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>UI!A49</f>
         <v>0</v>
@@ -18268,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>UI!A50</f>
         <v>0</v>
@@ -18294,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>UI!A51</f>
         <v>0</v>
@@ -18320,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>UI!A52</f>
         <v>0</v>
@@ -18346,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>UI!A53</f>
         <v>0</v>
@@ -18372,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>UI!A54</f>
         <v>0</v>
@@ -18398,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>UI!A55</f>
         <v>0</v>
@@ -18424,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>UI!A56</f>
         <v>0</v>
@@ -18450,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>UI!A57</f>
         <v>0</v>
@@ -18476,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>UI!A58</f>
         <v>0</v>
@@ -18502,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>UI!A59</f>
         <v>0</v>
@@ -18528,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>UI!A60</f>
         <v>0</v>
@@ -18554,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>UI!A61</f>
         <v>0</v>
@@ -18580,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>UI!A62</f>
         <v>0</v>
@@ -18606,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>UI!A63</f>
         <v>0</v>
@@ -18632,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>UI!A64</f>
         <v>0</v>
@@ -18658,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <f>UI!A65</f>
         <v>0</v>
@@ -18684,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <f>UI!A66</f>
         <v>0</v>
@@ -18710,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>UI!A67</f>
         <v>0</v>
@@ -18736,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>UI!A68</f>
         <v>0</v>
@@ -18762,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <f>UI!A69</f>
         <v>0</v>
@@ -18788,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>UI!A70</f>
         <v>0</v>
@@ -18814,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>UI!A71</f>
         <v>0</v>
@@ -18840,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <f>UI!A72</f>
         <v>0</v>
@@ -18866,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>UI!A73</f>
         <v>0</v>
@@ -18892,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>UI!A74</f>
         <v>0</v>
@@ -18918,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <f>UI!A75</f>
         <v>0</v>
@@ -18944,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>UI!A76</f>
         <v>0</v>
@@ -18970,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>UI!A77</f>
         <v>0</v>
@@ -18996,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <f>UI!A78</f>
         <v>0</v>
@@ -19022,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>UI!A79</f>
         <v>0</v>
@@ -19048,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>UI!A80</f>
         <v>0</v>
@@ -19074,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <f>UI!A81</f>
         <v>0</v>
@@ -19100,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>UI!A82</f>
         <v>0</v>
@@ -19126,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>UI!A83</f>
         <v>0</v>
@@ -19152,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <f>UI!A84</f>
         <v>0</v>
@@ -19178,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>UI!A85</f>
         <v>0</v>
@@ -19204,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>UI!A86</f>
         <v>0</v>
@@ -19230,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <f>UI!A87</f>
         <v>0</v>
@@ -19256,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>UI!A88</f>
         <v>0</v>
@@ -19282,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>UI!A89</f>
         <v>0</v>
@@ -19308,7 +18862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <f>UI!A90</f>
         <v>0</v>
@@ -19334,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <f>UI!A91</f>
         <v>0</v>
@@ -19360,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>UI!A92</f>
         <v>0</v>
@@ -19386,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <f>UI!A93</f>
         <v>0</v>
@@ -19412,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <f>UI!A94</f>
         <v>0</v>
@@ -19438,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <f>UI!A95</f>
         <v>0</v>
@@ -19464,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <f>UI!A96</f>
         <v>0</v>
@@ -19490,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <f>UI!A97</f>
         <v>0</v>
@@ -19516,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <f>UI!A98</f>
         <v>0</v>
@@ -19542,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <f>UI!A99</f>
         <v>0</v>
@@ -19568,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>UI!A100</f>
         <v>0</v>
@@ -19594,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <f>UI!A101</f>
         <v>0</v>
@@ -19620,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>UI!A102</f>
         <v>0</v>
@@ -19646,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <f>UI!A103</f>
         <v>0</v>
@@ -19672,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <f>UI!A104</f>
         <v>0</v>
